--- a/regionseng/9/standard of living/expenditures.xlsx
+++ b/regionseng/9/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -145,14 +145,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_р_._-;\-* #,##0.0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +334,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -389,21 +395,6 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -427,6 +418,29 @@
     </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -757,36 +771,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="32"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="9">
         <v>2011</v>
@@ -821,8 +839,14 @@
       <c r="L2" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -856,11 +880,17 @@
       <c r="K3" s="14">
         <v>76.325125768334871</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="14">
         <v>92.529870754257317</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="18">
+        <v>111.0123202775675</v>
+      </c>
+      <c r="N3" s="22">
+        <v>121.18324317766194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -894,11 +924,17 @@
       <c r="K4" s="15">
         <v>67.196186692279582</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="15">
         <v>82.299281963320411</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="19">
+        <v>99.58223667597268</v>
+      </c>
+      <c r="N4" s="23">
+        <v>108.90823722804791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -932,11 +968,17 @@
       <c r="K5" s="16">
         <v>31.851827710418007</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="16">
         <v>39.237478807211474</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="20">
+        <v>45.608924050422516</v>
+      </c>
+      <c r="N5" s="24">
+        <v>45.668558323390521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -970,11 +1012,17 @@
       <c r="K6" s="16">
         <v>1.5379086679083507</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="16">
         <v>1.5268093742357889</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="20">
+        <v>2.7647407323996736</v>
+      </c>
+      <c r="N6" s="24">
+        <v>4.9172902835852286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
@@ -1008,11 +1056,17 @@
       <c r="K7" s="16">
         <v>2.0028095374379293</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="16">
         <v>2.571739465893057</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="20">
+        <v>3.0490093549262585</v>
+      </c>
+      <c r="N7" s="24">
+        <v>6.3874809250441027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
@@ -1046,11 +1100,17 @@
       <c r="K8" s="16">
         <v>10.820709735067368</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="16">
         <v>11.543252735654196</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="20">
+        <v>13.460867040935835</v>
+      </c>
+      <c r="N8" s="24">
+        <v>13.548803064446512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1084,11 +1144,17 @@
       <c r="K9" s="16">
         <v>7.2649678068429395</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="16">
         <v>9.0491759158674121</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="20">
+        <v>9.3720851270483649</v>
+      </c>
+      <c r="N9" s="24">
+        <v>11.484108576086133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -1122,11 +1188,17 @@
       <c r="K10" s="16">
         <v>5.7450069353536701</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="16">
         <v>10.669204871064816</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="20">
+        <v>14.5414636762683</v>
+      </c>
+      <c r="N10" s="24">
+        <v>12.740648318075079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
@@ -1160,11 +1232,17 @@
       <c r="K11" s="16">
         <v>0.61708314781824747</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="16">
         <v>1.0168379660415652</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="20">
+        <v>1.3077555787569686</v>
+      </c>
+      <c r="N11" s="24">
+        <v>1.0459654304599764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1198,11 +1276,17 @@
       <c r="K12" s="16">
         <v>7.355873151433066</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="16">
         <v>6.6847828273521044</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="20">
+        <v>9.4773911152147789</v>
+      </c>
+      <c r="N12" s="24">
+        <v>13.115382306960344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
@@ -1236,11 +1320,17 @@
       <c r="K13" s="15">
         <v>9.1289390760552802</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="15">
         <v>10.230588790936917</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="19">
+        <v>11.43008360159479</v>
+      </c>
+      <c r="N13" s="23">
+        <v>12.275005949614025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1274,11 +1364,17 @@
       <c r="K14" s="15">
         <v>25.493267252221425</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="15">
         <v>36.695226347428637</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="19">
+        <v>55.348379665799463</v>
+      </c>
+      <c r="N14" s="23">
+        <v>56.291786366434728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1312,11 +1408,17 @@
       <c r="K15" s="16">
         <v>7.4796367046877545</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="16">
         <v>17.633678462882994</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="20">
+        <v>19.677913430843358</v>
+      </c>
+      <c r="N15" s="24">
+        <v>15.703003321474709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15">
       <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
@@ -1350,11 +1452,17 @@
       <c r="K16" s="16">
         <v>2.1665510248781836</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="16">
         <v>1.5332624611282346</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="20">
+        <v>4.725732316792806</v>
+      </c>
+      <c r="N16" s="24">
+        <v>6.0900357467091855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
@@ -1388,11 +1496,17 @@
       <c r="K17" s="16">
         <v>13.040566727963764</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="16">
         <v>15.545781418120065</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="20">
+        <v>23.628470530057275</v>
+      </c>
+      <c r="N17" s="24">
+        <v>29.68003870778147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
@@ -1426,11 +1540,17 @@
       <c r="K18" s="16">
         <v>2.8065127946917223</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="16">
         <v>1.9825040052973431</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="20">
+        <v>7.3162633881060275</v>
+      </c>
+      <c r="N18" s="24">
+        <v>4.8187085904693605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -1464,11 +1584,17 @@
       <c r="K19" s="15">
         <v>92.689453944500997</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="15">
         <v>118.99450831074907</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="19">
+        <v>154.93061634177224</v>
+      </c>
+      <c r="N19" s="23">
+        <v>165.20002359448259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -1502,27 +1628,35 @@
       <c r="K20" s="17">
         <v>101.81839302055631</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="17">
         <v>129.22509710168598</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="19" t="s">
+      <c r="M20" s="21">
+        <v>166.36069994336694</v>
+      </c>
+      <c r="N20" s="25">
+        <v>177.47502954409666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="9">
         <v>2011</v>
@@ -1557,8 +1691,14 @@
       <c r="L24" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1592,11 +1732,17 @@
       <c r="K25" s="14">
         <v>792.02011502769381</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="14">
         <v>928.96029812555059</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="18">
+        <v>1177.4607147987772</v>
+      </c>
+      <c r="N25" s="22">
+        <v>1312.0000574189442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -1630,11 +1776,17 @@
       <c r="K26" s="15">
         <v>697.28979779187523</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="15">
         <v>826.24956551824948</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="19">
+        <v>1056.2266538036286</v>
+      </c>
+      <c r="N26" s="23">
+        <v>1179.1037254805349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15">
       <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
@@ -1668,11 +1820,17 @@
       <c r="K27" s="16">
         <v>330.52403115087492</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="16">
         <v>393.9274929632935</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="20">
+        <v>483.75456146974591</v>
+      </c>
+      <c r="N27" s="24">
+        <v>494.43429282286655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -1706,11 +1864,17 @@
       <c r="K28" s="16">
         <v>15.958763091409089</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="16">
         <v>15.328512618782684</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="20">
+        <v>29.324435259664011</v>
+      </c>
+      <c r="N28" s="24">
+        <v>53.237435847059892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" s="11" t="s">
         <v>2</v>
       </c>
@@ -1744,11 +1908,17 @@
       <c r="K29" s="16">
         <v>20.783004603685143</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="16">
         <v>25.819163492426458</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="20">
+        <v>32.339552272245299</v>
+      </c>
+      <c r="N29" s="24">
+        <v>69.154572205450364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
@@ -1782,11 +1952,17 @@
       <c r="K30" s="16">
         <v>112.28569468803791</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="16">
         <v>115.88931677134677</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="20">
+        <v>142.77372176531637</v>
+      </c>
+      <c r="N30" s="24">
+        <v>146.68719810090457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" s="12" t="s">
         <v>17</v>
       </c>
@@ -1820,11 +1996,17 @@
       <c r="K31" s="16">
         <v>75.388026945582965</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="16">
         <v>90.849853004987253</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="20">
+        <v>99.405741860521019</v>
+      </c>
+      <c r="N31" s="24">
+        <v>124.3336183794078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
@@ -1858,11 +2040,17 @@
       <c r="K32" s="16">
         <v>59.615506793720158</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="16">
         <v>107.11425031717046</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="20">
+        <v>154.23515310434607</v>
+      </c>
+      <c r="N32" s="24">
+        <v>137.93764621700058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" s="11" t="s">
         <v>5</v>
       </c>
@@ -1896,11 +2084,17 @@
       <c r="K33" s="16">
         <v>6.4034256189778214</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="16">
         <v>10.208617956335898</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="20">
+        <v>13.870810146974522</v>
+      </c>
+      <c r="N33" s="24">
+        <v>11.324228241769656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
@@ -1934,11 +2128,17 @@
       <c r="K34" s="16">
         <v>76.331344899587236</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="16">
         <v>67.11235839390659</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="20">
+        <v>100.52267792481541</v>
+      </c>
+      <c r="N34" s="24">
+        <v>141.99473366607558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
@@ -1972,11 +2172,17 @@
       <c r="K35" s="15">
         <v>94.730317235818589</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="15">
         <v>102.71073260730134</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="19">
+        <v>121.23406099514851</v>
+      </c>
+      <c r="N35" s="23">
+        <v>132.89633193840885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -2010,11 +2216,17 @@
       <c r="K36" s="15">
         <v>264.54172539225476</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="15">
         <v>368.40436639130888</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="19">
+        <v>587.05684667520177</v>
+      </c>
+      <c r="N36" s="23">
+        <v>609.44751937940509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15">
       <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
@@ -2048,11 +2260,17 @@
       <c r="K37" s="16">
         <v>77.615630024547769</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="16">
         <v>177.03458427424854</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="20">
+        <v>208.71530255467766</v>
+      </c>
+      <c r="N37" s="24">
+        <v>170.00981917293973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15">
       <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
@@ -2086,11 +2304,17 @@
       <c r="K38" s="16">
         <v>22.482137758222823</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="16">
         <v>15.393298849159656</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="20">
+        <v>50.123843351492773</v>
+      </c>
+      <c r="N38" s="24">
+        <v>65.934258234464522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15">
       <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
@@ -2124,11 +2348,17 @@
       <c r="K39" s="16">
         <v>135.32098448494315</v>
       </c>
-      <c r="L39" s="25">
+      <c r="L39" s="16">
         <v>156.07299159776477</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="20">
+        <v>250.61719032950481</v>
+      </c>
+      <c r="N39" s="24">
+        <v>321.33330869612951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
@@ -2162,11 +2392,17 @@
       <c r="K40" s="16">
         <v>29.122973124541058</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="16">
         <v>19.903491670135971</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="20">
+        <v>77.600510439526602</v>
+      </c>
+      <c r="N40" s="24">
+        <v>52.170133275871422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15">
       <c r="A41" s="10" t="s">
         <v>15</v>
       </c>
@@ -2200,11 +2436,17 @@
       <c r="K41" s="3">
         <v>961.83152318412999</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="3">
         <v>1194.6539319095587</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="19">
+        <v>1643.2835004788305</v>
+      </c>
+      <c r="N41" s="23">
+        <v>1788.55124485994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15">
       <c r="A42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2238,27 +2480,35 @@
       <c r="K42" s="5">
         <v>1056.561840419949</v>
       </c>
-      <c r="L42" s="26">
+      <c r="L42" s="5">
         <v>1297.3646645168599</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="19" t="s">
+      <c r="M42" s="21">
+        <v>1764.517561473979</v>
+      </c>
+      <c r="N42" s="25">
+        <v>1921.4475767983495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="9">
         <v>2011</v>
@@ -2293,8 +2543,14 @@
       <c r="L46" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -2328,11 +2584,17 @@
       <c r="K47" s="14">
         <v>246.16958491986654</v>
       </c>
-      <c r="L47" s="27">
+      <c r="L47" s="14">
         <v>298.89033133392644</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="22">
+        <v>364.07150760555896</v>
+      </c>
+      <c r="N47" s="22">
+        <v>399.87079122329442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15">
       <c r="A48" s="10" t="s">
         <v>12</v>
       </c>
@@ -2366,11 +2628,17 @@
       <c r="K48" s="15">
         <v>216.72623817803114</v>
       </c>
-      <c r="L48" s="28">
+      <c r="L48" s="15">
         <v>265.84344551707159</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="23">
+        <v>326.58586854779134</v>
+      </c>
+      <c r="N48" s="23">
+        <v>359.36670656080707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15">
       <c r="A49" s="11" t="s">
         <v>0</v>
       </c>
@@ -2404,11 +2672,17 @@
       <c r="K49" s="16">
         <v>102.73093070572695</v>
       </c>
-      <c r="L49" s="29">
+      <c r="L49" s="16">
         <v>126.74504941806336</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="24">
+        <v>149.57717934177936</v>
+      </c>
+      <c r="N49" s="24">
+        <v>150.69346282496201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15">
       <c r="A50" s="11" t="s">
         <v>1</v>
       </c>
@@ -2442,11 +2716,17 @@
       <c r="K50" s="16">
         <v>4.9601796867359811</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L50" s="16">
         <v>4.9319052974910074</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="24">
+        <v>9.0671316847220691</v>
+      </c>
+      <c r="N50" s="24">
+        <v>16.225681907928124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15">
       <c r="A51" s="11" t="s">
         <v>2</v>
       </c>
@@ -2480,11 +2760,17 @@
       <c r="K51" s="16">
         <v>6.4596132340628172</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L51" s="16">
         <v>8.307242351032297</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="24">
+        <v>9.9994075412165504</v>
+      </c>
+      <c r="N51" s="24">
+        <v>21.076899614549205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15">
       <c r="A52" s="11" t="s">
         <v>3</v>
       </c>
@@ -2518,11 +2804,17 @@
       <c r="K52" s="16">
         <v>34.899773792773743</v>
       </c>
-      <c r="L52" s="29">
+      <c r="L52" s="16">
         <v>37.287057754505653</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="24">
+        <v>44.145714142521058</v>
+      </c>
+      <c r="N52" s="24">
+        <v>44.707258688943035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15">
       <c r="A53" s="12" t="s">
         <v>17</v>
       </c>
@@ -2556,11 +2848,17 @@
       <c r="K53" s="16">
         <v>23.431525221392846</v>
       </c>
-      <c r="L53" s="29">
+      <c r="L53" s="16">
         <v>29.230681570666246</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="24">
+        <v>30.736310646248402</v>
+      </c>
+      <c r="N53" s="24">
+        <v>37.894344650286342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15">
       <c r="A54" s="11" t="s">
         <v>4</v>
       </c>
@@ -2594,11 +2892,17 @@
       <c r="K54" s="16">
         <v>18.529232129015348</v>
       </c>
-      <c r="L54" s="29">
+      <c r="L54" s="16">
         <v>34.463705103958361</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="24">
+        <v>47.68959508434191</v>
+      </c>
+      <c r="N54" s="24">
+        <v>42.04057417556821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15">
       <c r="A55" s="11" t="s">
         <v>5</v>
       </c>
@@ -2632,11 +2936,17 @@
       <c r="K55" s="16">
         <v>1.9902633743511573</v>
       </c>
-      <c r="L55" s="29">
+      <c r="L55" s="16">
         <v>3.2845937652960115</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="24">
+        <v>4.2888622086916213</v>
+      </c>
+      <c r="N55" s="24">
+        <v>3.4513932232120843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15">
       <c r="A56" s="11" t="s">
         <v>6</v>
       </c>
@@ -2670,11 +2980,17 @@
       <c r="K56" s="16">
         <v>23.724720033972282</v>
       </c>
-      <c r="L56" s="29">
+      <c r="L56" s="16">
         <v>21.593210256058676</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="24">
+        <v>31.081667898270329</v>
+      </c>
+      <c r="N56" s="24">
+        <v>43.277091475358006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15">
       <c r="A57" s="10" t="s">
         <v>13</v>
       </c>
@@ -2708,11 +3024,17 @@
       <c r="K57" s="15">
         <v>29.443346741835391</v>
       </c>
-      <c r="L57" s="28">
+      <c r="L57" s="15">
         <v>33.046885816854967</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="23">
+        <v>37.485639057767614</v>
+      </c>
+      <c r="N57" s="23">
+        <v>40.504084662487301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15">
       <c r="A58" s="10" t="s">
         <v>14</v>
       </c>
@@ -2746,11 +3068,17 @@
       <c r="K58" s="15">
         <v>82.222819216554385</v>
       </c>
-      <c r="L58" s="28">
+      <c r="L58" s="15">
         <v>118.53305610341774</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="23">
+        <v>181.51830335650035</v>
+      </c>
+      <c r="N58" s="23">
+        <v>185.74714262035977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15">
       <c r="A59" s="11" t="s">
         <v>7</v>
       </c>
@@ -2784,11 +3112,17 @@
       <c r="K59" s="16">
         <v>24.123891633445158</v>
       </c>
-      <c r="L59" s="29">
+      <c r="L59" s="16">
         <v>56.9603735036507</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="24">
+        <v>64.534887581720938</v>
+      </c>
+      <c r="N59" s="24">
+        <v>51.815516717393564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15">
       <c r="A60" s="11" t="s">
         <v>8</v>
       </c>
@@ -2822,11 +3156,17 @@
       <c r="K60" s="16">
         <v>6.9877246992135476</v>
       </c>
-      <c r="L60" s="29">
+      <c r="L60" s="16">
         <v>4.9527500826796986</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="24">
+        <v>15.498320229801864</v>
+      </c>
+      <c r="N60" s="24">
+        <v>20.095413761493067</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15">
       <c r="A61" s="11" t="s">
         <v>9</v>
       </c>
@@ -2860,11 +3200,17 @@
       <c r="K61" s="16">
         <v>42.059424943318987</v>
       </c>
-      <c r="L61" s="29">
+      <c r="L61" s="16">
         <v>50.216040733990958</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="24">
+        <v>77.4909745763578</v>
+      </c>
+      <c r="N61" s="24">
+        <v>97.935822234259845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15">
       <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
@@ -2898,11 +3244,17 @@
       <c r="K62" s="16">
         <v>9.0517779405767023</v>
       </c>
-      <c r="L62" s="29">
+      <c r="L62" s="16">
         <v>6.4038917830963884</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="24">
+        <v>23.994120968619772</v>
+      </c>
+      <c r="N62" s="24">
+        <v>15.900389907213283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15">
       <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
@@ -2936,11 +3288,17 @@
       <c r="K63" s="15">
         <v>298.94905739458551</v>
       </c>
-      <c r="L63" s="28">
+      <c r="L63" s="15">
         <v>384.37650162048942</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="23">
+        <v>508.10417190429177</v>
+      </c>
+      <c r="N63" s="23">
+        <v>545.11384918116676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15">
       <c r="A64" s="13" t="s">
         <v>16</v>
       </c>
@@ -2974,92 +3332,109 @@
       <c r="K64" s="17">
         <v>328.39240413642091</v>
       </c>
-      <c r="L64" s="30">
+      <c r="L64" s="17">
         <v>417.42338743734427</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="20" t="s">
+      <c r="M64" s="25">
+        <v>545.58981096205935</v>
+      </c>
+      <c r="N64" s="25">
+        <v>585.6179338436541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15">
+      <c r="A65" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
-      <c r="A66" s="21" t="s">
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" customHeight="1">
-      <c r="A67" s="22" t="s">
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" customHeight="1">
+      <c r="A67" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+    </row>
+    <row r="68" spans="1:14" ht="15">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="N68" s="33"/>
+    </row>
+    <row r="69" spans="1:14" ht="15">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="N69" s="33"/>
+    </row>
+    <row r="70" spans="1:14" ht="15">
+      <c r="N70" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
